--- a/架构说明.xlsx
+++ b/架构说明.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13440" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13440" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="m" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>k_bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,22 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已喘气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小集结</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人气未散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,13 +247,45 @@
   </si>
   <si>
     <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,6 +516,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,27 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -855,78 +870,78 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="14.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.06640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.53125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -945,130 +960,130 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="26">
         <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="33"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1076,26 +1091,26 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1108,7 +1123,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10" t="s">
@@ -1116,7 +1131,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1125,10 +1140,10 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>1</v>
@@ -1142,7 +1157,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="10"/>
@@ -1155,10 +1170,10 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
@@ -1170,13 +1185,13 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="8"/>
@@ -1188,10 +1203,10 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1204,7 +1219,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="10"/>
@@ -1217,7 +1232,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="10"/>
@@ -1230,7 +1245,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="10"/>
@@ -1243,7 +1258,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="10"/>
@@ -1256,7 +1271,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="10"/>
@@ -1269,7 +1284,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="10"/>
@@ -1282,7 +1297,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="10"/>
@@ -1295,7 +1310,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="10"/>
@@ -1308,7 +1323,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="10"/>
@@ -1321,7 +1336,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="10"/>
@@ -1336,17 +1351,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1358,82 +1373,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="4" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <f>A2</f>
         <v>0</v>
@@ -1443,13 +1458,13 @@
         <v>Stick</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" ref="A6:B6" si="0">A3</f>
         <v>0</v>
@@ -1459,16 +1474,16 @@
         <v>Stick</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" ref="A7:B7" si="1">A4</f>
         <v>0</v>
@@ -1478,13 +1493,13 @@
         <v>Stick</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <f>A5</f>
         <v>0</v>
@@ -1494,10 +1509,10 @@
         <v>Stick</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" ref="A9" si="2">A8</f>
         <v>0</v>
@@ -1507,22 +1522,22 @@
         <v>Stick</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <f>A9</f>
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" ref="A11:A32" si="4">A10</f>
         <v>0</v>
@@ -1532,10 +1547,10 @@
         <v>Trend</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1545,10 +1560,10 @@
         <v>Trend</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1558,33 +1573,33 @@
         <v>Trend</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1594,10 +1609,10 @@
         <v>Stick</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1607,10 +1622,10 @@
         <v>Stick</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1620,35 +1635,35 @@
         <v>Stick</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" ref="B20:B23" si="7">B19</f>
+        <f t="shared" ref="B20:B22" si="7">B19</f>
         <v>Trend</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1658,10 +1673,10 @@
         <v>Trend</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -1671,33 +1686,33 @@
         <v>Trend</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1707,10 +1722,10 @@
         <v>Stick</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1720,10 +1735,10 @@
         <v>Stick</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1733,35 +1748,35 @@
         <v>Stick</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" ref="B29:B32" si="9">B28</f>
+        <f t="shared" ref="B29:B31" si="9">B28</f>
         <v>Trend</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1771,10 +1786,10 @@
         <v>Trend</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -1784,19 +1799,19 @@
         <v>Trend</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1808,50 +1823,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>1100</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1111</v>
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/架构说明.xlsx
+++ b/架构说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>k_bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,34 @@
   </si>
   <si>
     <t>drt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>features</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccHL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLv1_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -519,6 +547,24 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,24 +583,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -885,60 +914,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="32" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="36"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -992,16 +1021,16 @@
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1023,10 +1052,10 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1040,10 +1069,10 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1059,8 +1088,8 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="7" t="s">
@@ -1082,8 +1111,8 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1351,17 +1380,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,54 +1852,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/架构说明.xlsx
+++ b/架构说明.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="m" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>k_bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>PLv1_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TmIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt/TmIdx/V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,6 +559,25 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,25 +596,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -914,60 +926,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1021,16 +1033,16 @@
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1052,10 +1064,10 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1069,10 +1081,10 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1088,8 +1100,8 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="7" t="s">
@@ -1111,8 +1123,8 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
@@ -1380,17 +1392,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,40 +1864,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -1893,42 +1908,53 @@
       <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>69</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>71</v>
       </c>
     </row>
